--- a/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
+++ b/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\ccs\BFoCPAbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E101E9B-EA72-419C-A6F2-7672D0F4F0D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BD733D0-E9CD-4882-B0CC-8ACC11C71B45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45615" yWindow="1170" windowWidth="20955" windowHeight="13035" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="170">
   <si>
     <t>Source:</t>
   </si>
@@ -496,56 +497,15 @@
     <t>Industry Sector</t>
   </si>
   <si>
-    <t>They are assuming that CCS construction, in the BAU case (i.e. without any policy or market support) will continue at its current trend.</t>
-  </si>
-  <si>
     <t>Texas?</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t xml:space="preserve">So, they are basically taking the linear trend in CCS construction from 2018--2026 and forecasting that trend out to 2050. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I think the only problem with this method is that it overlooks the trend happening </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>before</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2018. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">In Texas this is important, because Petra Nova was built in 2017 but there is no power sector CCS planned for future development as of 2020. </t>
-  </si>
-  <si>
-    <t>In that case, using the 2018-2026 timeframe, Texas has a good amount of existing power sector CCS with none on the horizon, so the BAU scenario is flat (i.e. BAU scenario has no new CCS in the power sector)</t>
-  </si>
-  <si>
     <t xml:space="preserve">But using a 2010--2025 timeframe shows that Texas had zero Power Sector CCS in 2010 but a big project built in 2017, meaning that there is an upward trend. </t>
   </si>
   <si>
-    <t xml:space="preserve">I think it's reasonable to think that the trend in Texas is upward and not flat, because there are CCS power sector pilot projects--notably the Net Power Clean Energy Allam Cycle project. So there is some power sector CCS work happening in Texas. I.e., there is at least some sort of future trend or interest. </t>
-  </si>
-  <si>
     <t>2010 is the earliest Texas CCS example (disregarding the 1972 Terrell Plant)</t>
   </si>
   <si>
@@ -555,9 +515,6 @@
     <t>Then for rows 39 and 42</t>
   </si>
   <si>
-    <t>I scaled down the electricity sector emissions by the ratio of texas CO2 Emissions to US National CO2 Emissions in the power sector</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -594,12 +551,6 @@
     <t>practically</t>
   </si>
   <si>
-    <t xml:space="preserve">So I took the same idea as EPS, but: </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and looked at the 2010-2025 trends.</t>
-  </si>
-  <si>
     <t>only used Texas numbers (though I did the Lake Charles chemical plant in eastern Lousiana because, per the source, "The captured CO2 would most likely be used in Denbury Resources enhanced oil recovery assets in the Houston area, Texas."</t>
   </si>
   <si>
@@ -610,6 +561,18 @@
   </si>
   <si>
     <t>https://co2re.co/FacilityData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Texas Petra Nova was built in 2017 but there is no power sector CCS planned for future development as of 2020. </t>
+  </si>
+  <si>
+    <t>Changes from EPS to Texas:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "The captured CO2 would most likely be used in Denbury Resources enhanced oil recovery assets in the Houston area, Texas." and looked at the 2010-2025 trends.</t>
+  </si>
+  <si>
+    <t>Scaled down the electricity sector emissions by the ratio of texas CO2 Emissions to US National CO2 Emissions in the power sector</t>
   </si>
 </sst>
 </file>
@@ -7422,20 +7385,20 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="103.3984375" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" customWidth="1"/>
-    <col min="4" max="4" width="22.1328125" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="103.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7443,98 +7406,98 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
@@ -7552,43 +7515,43 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.86328125" customWidth="1"/>
-    <col min="2" max="2" width="16.1328125" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" customWidth="1"/>
+    <col min="1" max="1" width="35.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="86.3984375" customWidth="1"/>
+    <col min="7" max="7" width="86.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -7617,10 +7580,10 @@
         <v>114</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
@@ -7650,10 +7613,10 @@
         <v>2013</v>
       </c>
       <c r="J8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
@@ -7683,7 +7646,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
@@ -7713,7 +7676,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>47</v>
       </c>
@@ -7743,7 +7706,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>50</v>
       </c>
@@ -7773,7 +7736,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>52</v>
       </c>
@@ -7803,10 +7766,10 @@
         <v>2018</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>54</v>
       </c>
@@ -7835,10 +7798,10 @@
         <v>2022</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>59</v>
       </c>
@@ -7868,10 +7831,10 @@
         <v>2021</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>62</v>
       </c>
@@ -7900,10 +7863,10 @@
         <v>2025</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>66</v>
       </c>
@@ -7933,10 +7896,10 @@
         <v>2017</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>68</v>
       </c>
@@ -7966,7 +7929,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>70</v>
       </c>
@@ -7996,7 +7959,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>73</v>
       </c>
@@ -8026,7 +7989,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>75</v>
       </c>
@@ -8057,7 +8020,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>77</v>
       </c>
@@ -8087,10 +8050,10 @@
         <v>2010</v>
       </c>
       <c r="J22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>79</v>
       </c>
@@ -8120,7 +8083,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>81</v>
       </c>
@@ -8151,7 +8114,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>83</v>
       </c>
@@ -8181,7 +8144,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>86</v>
       </c>
@@ -8210,7 +8173,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>90</v>
       </c>
@@ -8240,7 +8203,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>92</v>
       </c>
@@ -8270,7 +8233,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>94</v>
       </c>
@@ -8299,7 +8262,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>97</v>
       </c>
@@ -8330,7 +8293,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>99</v>
       </c>
@@ -8360,7 +8323,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>101</v>
       </c>
@@ -8390,10 +8353,10 @@
         <v>2013</v>
       </c>
       <c r="J32" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>104</v>
       </c>
@@ -8423,10 +8386,10 @@
         <v>1972</v>
       </c>
       <c r="J33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>106</v>
       </c>
@@ -8454,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>108</v>
       </c>
@@ -8484,7 +8447,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>110</v>
       </c>
@@ -8529,43 +8492,43 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.86328125" customWidth="1"/>
-    <col min="2" max="2" width="16.1328125" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" customWidth="1"/>
+    <col min="1" max="1" width="35.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="86.3984375" customWidth="1"/>
+    <col min="7" max="7" width="86.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -8594,10 +8557,10 @@
         <v>114</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
@@ -8627,10 +8590,10 @@
         <v>2013</v>
       </c>
       <c r="J8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>52</v>
       </c>
@@ -8660,10 +8623,10 @@
         <v>2018</v>
       </c>
       <c r="J9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>59</v>
       </c>
@@ -8693,10 +8656,10 @@
         <v>2021</v>
       </c>
       <c r="J10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>62</v>
       </c>
@@ -8725,10 +8688,10 @@
         <v>2025</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>66</v>
       </c>
@@ -8758,10 +8721,10 @@
         <v>2017</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>77</v>
       </c>
@@ -8791,10 +8754,10 @@
         <v>2010</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>101</v>
       </c>
@@ -8824,10 +8787,10 @@
         <v>2013</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>104</v>
       </c>
@@ -8857,10 +8820,10 @@
         <v>1972</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>54</v>
       </c>
@@ -8889,7 +8852,7 @@
         <v>2022</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -8901,220 +8864,195 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE7BA9D-5007-4115-9694-4B1F053AEFCE}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="D15" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="E15" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
+      <c r="C16">
+        <v>2013</v>
+      </c>
+      <c r="D16">
+        <v>2021</v>
+      </c>
+      <c r="E16">
+        <v>226</v>
+      </c>
+      <c r="F16" s="24">
+        <f>E16/D16</f>
+        <v>0.11182582879762494</v>
+      </c>
+      <c r="G16" s="24">
+        <f>AVERAGE(F16:F17)</f>
+        <v>0.11368017497787705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17">
+        <v>2016</v>
+      </c>
+      <c r="D17">
+        <v>1796</v>
+      </c>
+      <c r="E17">
+        <v>207.5</v>
+      </c>
+      <c r="F17" s="24">
+        <f t="shared" ref="F17:F19" si="0">E17/D17</f>
+        <v>0.11553452115812918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B15" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D21" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22">
+      <c r="C18">
         <v>2013</v>
       </c>
-      <c r="D22">
-        <v>2021</v>
-      </c>
-      <c r="E22">
-        <v>226</v>
-      </c>
-      <c r="F22" s="24">
-        <f>E22/D22</f>
-        <v>0.11182582879762494</v>
-      </c>
-      <c r="G22" s="24">
-        <f>AVERAGE(F22:F23)</f>
-        <v>0.11368017497787705</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23">
-        <v>2016</v>
-      </c>
-      <c r="D23">
-        <v>1796</v>
-      </c>
-      <c r="E23">
-        <v>207.5</v>
-      </c>
-      <c r="F23" s="24">
-        <f t="shared" ref="F23:F25" si="0">E23/D23</f>
-        <v>0.11553452115812918</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24">
-        <v>2013</v>
-      </c>
-      <c r="D24">
+      <c r="D18">
         <v>962</v>
       </c>
-      <c r="E24">
+      <c r="E18">
         <v>189</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F18" s="24">
         <f t="shared" si="0"/>
         <v>0.19646569646569648</v>
       </c>
-      <c r="G24" s="24">
-        <f>AVERAGE(F24:F25)</f>
+      <c r="G18" s="24">
+        <f>AVERAGE(F18:F19)</f>
         <v>0.20355199716901845</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19">
         <v>2016</v>
       </c>
-      <c r="D25">
+      <c r="D19">
         <v>940</v>
       </c>
-      <c r="E25">
+      <c r="E19">
         <v>198</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F19" s="24">
         <f t="shared" si="0"/>
         <v>0.21063829787234042</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>173</v>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{3ED9B972-8337-41F1-869E-9EAF922BA92E}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{E3AA4FCA-BAEF-49DF-9361-99E48CE075CD}"/>
+    <hyperlink ref="A14" r:id="rId1" xr:uid="{3ED9B972-8337-41F1-869E-9EAF922BA92E}"/>
+    <hyperlink ref="A9" r:id="rId2" xr:uid="{E3AA4FCA-BAEF-49DF-9361-99E48CE075CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -9129,13 +9067,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.86328125" customWidth="1"/>
+    <col min="1" max="1" width="52.81640625" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>127</v>
       </c>
@@ -9173,7 +9111,7 @@
       <c r="AG1" s="7"/>
       <c r="AH1" s="7"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2010</v>
       </c>
@@ -9223,7 +9161,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -9310,7 +9248,7 @@
       <c r="AH3" s="14"/>
       <c r="AI3" s="10"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -9396,7 +9334,7 @@
       <c r="AG4" s="14"/>
       <c r="AH4" s="14"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -9431,7 +9369,7 @@
       <c r="AG5" s="14"/>
       <c r="AH5" s="14"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -9469,7 +9407,7 @@
       <c r="AG6" s="14"/>
       <c r="AH6" s="14"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -9507,7 +9445,7 @@
       <c r="AG7" s="14"/>
       <c r="AH7" s="14"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -9542,7 +9480,7 @@
       <c r="AG8" s="14"/>
       <c r="AH8" s="14"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>133</v>
       </c>
@@ -9580,7 +9518,7 @@
       <c r="AG9" s="14"/>
       <c r="AH9" s="14"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -9618,7 +9556,7 @@
       <c r="AG10" s="14"/>
       <c r="AH10" s="14"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -9656,7 +9594,7 @@
       <c r="AG11" s="14"/>
       <c r="AH11" s="14"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -9694,7 +9632,7 @@
       <c r="AG12" s="14"/>
       <c r="AH12" s="14"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -9729,7 +9667,7 @@
       <c r="AG13" s="14"/>
       <c r="AH13" s="14"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>137</v>
       </c>
@@ -9767,7 +9705,7 @@
       <c r="AG14" s="14"/>
       <c r="AH14" s="14"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>2018</v>
       </c>
@@ -9868,7 +9806,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -10005,7 +9943,7 @@
         <v>5002941.1764706075</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -10142,7 +10080,7 @@
         <v>22627941.176470637</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -10177,7 +10115,7 @@
       <c r="AG18" s="14"/>
       <c r="AH18" s="14"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -10212,7 +10150,7 @@
       <c r="AG19" s="14"/>
       <c r="AH19" s="14"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -10247,7 +10185,7 @@
       <c r="AG20" s="14"/>
       <c r="AH20" s="14"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -10282,7 +10220,7 @@
       <c r="AG21" s="14"/>
       <c r="AH21" s="14"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -10317,7 +10255,7 @@
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -10352,7 +10290,7 @@
       <c r="AG23" s="14"/>
       <c r="AH23" s="14"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -10387,7 +10325,7 @@
       <c r="AG24" s="14"/>
       <c r="AH24" s="14"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -10422,7 +10360,7 @@
       <c r="AG25" s="14"/>
       <c r="AH25" s="14"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -10457,7 +10395,7 @@
       <c r="AG26" s="14"/>
       <c r="AH26" s="14"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -10492,7 +10430,7 @@
       <c r="AG27" s="14"/>
       <c r="AH27" s="14"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -10527,7 +10465,7 @@
       <c r="AG28" s="14"/>
       <c r="AH28" s="14"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -10562,7 +10500,7 @@
       <c r="AG29" s="14"/>
       <c r="AH29" s="14"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -10597,7 +10535,7 @@
       <c r="AG30" s="14"/>
       <c r="AH30" s="14"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -10632,7 +10570,7 @@
       <c r="AG31" s="14"/>
       <c r="AH31" s="14"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -10667,7 +10605,7 @@
       <c r="AG32" s="14"/>
       <c r="AH32" s="14"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -10702,7 +10640,7 @@
       <c r="AG33" s="14"/>
       <c r="AH33" s="14"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -10737,7 +10675,7 @@
       <c r="AG34" s="14"/>
       <c r="AH34" s="14"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
         <v>126</v>
       </c>
@@ -10775,7 +10713,7 @@
       <c r="AG36" s="7"/>
       <c r="AH36" s="7"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>117</v>
       </c>
@@ -10879,7 +10817,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -10917,144 +10855,144 @@
       <c r="AG38" s="14"/>
       <c r="AH38" s="14"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B39" s="14">
-        <f>'BAU Calculations USA'!B39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!B39*'Texas Notes'!$G$16</f>
         <v>205315490424044.19</v>
       </c>
       <c r="C39" s="14">
-        <f>'BAU Calculations USA'!C39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!C39*'Texas Notes'!$G$16</f>
         <v>182136102746055.06</v>
       </c>
       <c r="D39" s="14">
-        <f>'BAU Calculations USA'!D39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!D39*'Texas Notes'!$G$16</f>
         <v>143329101413857.16</v>
       </c>
       <c r="E39" s="14">
-        <f>'BAU Calculations USA'!E39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!E39*'Texas Notes'!$G$16</f>
         <v>189036489367212.19</v>
       </c>
       <c r="F39" s="14">
-        <f>'BAU Calculations USA'!F39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!F39*'Texas Notes'!$G$16</f>
         <v>166177679782660.69</v>
       </c>
       <c r="G39" s="14">
-        <f>'BAU Calculations USA'!G39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!G39*'Texas Notes'!$G$16</f>
         <v>164675964671202.91</v>
       </c>
       <c r="H39" s="14">
-        <f>'BAU Calculations USA'!H39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!H39*'Texas Notes'!$G$16</f>
         <v>165715001470500.72</v>
       </c>
       <c r="I39" s="14">
-        <f>'BAU Calculations USA'!I39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!I39*'Texas Notes'!$G$16</f>
         <v>160053728756602.44</v>
       </c>
       <c r="J39" s="14">
-        <f>'BAU Calculations USA'!J39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!J39*'Texas Notes'!$G$16</f>
         <v>162392129955897.38</v>
       </c>
       <c r="K39" s="14">
-        <f>'BAU Calculations USA'!K39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!K39*'Texas Notes'!$G$16</f>
         <v>162302322617664.84</v>
       </c>
       <c r="L39" s="14">
-        <f>'BAU Calculations USA'!L39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!L39*'Texas Notes'!$G$16</f>
         <v>163822226557119.06</v>
       </c>
       <c r="M39" s="14">
-        <f>'BAU Calculations USA'!M39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!M39*'Texas Notes'!$G$16</f>
         <v>162348931489405.78</v>
       </c>
       <c r="N39" s="14">
-        <f>'BAU Calculations USA'!N39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!N39*'Texas Notes'!$G$16</f>
         <v>162314827436912.41</v>
       </c>
       <c r="O39" s="14">
-        <f>'BAU Calculations USA'!O39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!O39*'Texas Notes'!$G$16</f>
         <v>162561513416614.41</v>
       </c>
       <c r="P39" s="14">
-        <f>'BAU Calculations USA'!P39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!P39*'Texas Notes'!$G$16</f>
         <v>166666504535065.53</v>
       </c>
       <c r="Q39" s="14">
-        <f>'BAU Calculations USA'!Q39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!Q39*'Texas Notes'!$G$16</f>
         <v>167974963349060.91</v>
       </c>
       <c r="R39" s="14">
-        <f>'BAU Calculations USA'!R39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!R39*'Texas Notes'!$G$16</f>
         <v>168810512635148.31</v>
       </c>
       <c r="S39" s="14">
-        <f>'BAU Calculations USA'!S39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!S39*'Texas Notes'!$G$16</f>
         <v>169377776708287.91</v>
       </c>
       <c r="T39" s="14">
-        <f>'BAU Calculations USA'!T39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!T39*'Texas Notes'!$G$16</f>
         <v>170919279880987.94</v>
       </c>
       <c r="U39" s="14">
-        <f>'BAU Calculations USA'!U39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!U39*'Texas Notes'!$G$16</f>
         <v>171248952388423.78</v>
       </c>
       <c r="V39" s="14">
-        <f>'BAU Calculations USA'!V39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!V39*'Texas Notes'!$G$16</f>
         <v>170803326102510.5</v>
       </c>
       <c r="W39" s="14">
-        <f>'BAU Calculations USA'!W39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!W39*'Texas Notes'!$G$16</f>
         <v>171418335849140.81</v>
       </c>
       <c r="X39" s="14">
-        <f>'BAU Calculations USA'!X39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!X39*'Texas Notes'!$G$16</f>
         <v>173141727301805.44</v>
       </c>
       <c r="Y39" s="14">
-        <f>'BAU Calculations USA'!Y39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!Y39*'Texas Notes'!$G$16</f>
         <v>173051919963572.91</v>
       </c>
       <c r="Z39" s="14">
-        <f>'BAU Calculations USA'!Z39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!Z39*'Texas Notes'!$G$16</f>
         <v>174367199588066.94</v>
       </c>
       <c r="AA39" s="14">
-        <f>'BAU Calculations USA'!AA39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!AA39*'Texas Notes'!$G$16</f>
         <v>176017835728745.72</v>
       </c>
       <c r="AB39" s="14">
-        <f>'BAU Calculations USA'!AB39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!AB39*'Texas Notes'!$G$16</f>
         <v>178291439228303.25</v>
       </c>
       <c r="AC39" s="14">
-        <f>'BAU Calculations USA'!AC39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!AC39*'Texas Notes'!$G$16</f>
         <v>179712441415526.72</v>
       </c>
       <c r="AD39" s="14">
-        <f>'BAU Calculations USA'!AD39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!AD39*'Texas Notes'!$G$16</f>
         <v>181361940754455.72</v>
       </c>
       <c r="AE39" s="14">
-        <f>'BAU Calculations USA'!AE39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!AE39*'Texas Notes'!$G$16</f>
         <v>183377490256813.47</v>
       </c>
       <c r="AF39" s="14">
-        <f>'BAU Calculations USA'!AF39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!AF39*'Texas Notes'!$G$16</f>
         <v>186433213360218.81</v>
       </c>
       <c r="AG39" s="14">
-        <f>'BAU Calculations USA'!AG39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!AG39*'Texas Notes'!$G$16</f>
         <v>188587452676049.56</v>
       </c>
       <c r="AH39" s="14">
-        <f>'BAU Calculations USA'!AH39*'Texas Notes'!$G$22</f>
+        <f>'BAU Calculations USA'!AH39*'Texas Notes'!$G$16</f>
         <v>190459765157935.22</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -11092,7 +11030,7 @@
       <c r="AG40" s="14"/>
       <c r="AH40" s="14"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -11130,144 +11068,144 @@
       <c r="AG41" s="14"/>
       <c r="AH41" s="14"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B42" s="14">
-        <f>'BAU Calculations USA'!B42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!B42*'Texas Notes'!$G$18</f>
         <v>267601668598221.78</v>
       </c>
       <c r="C42" s="14">
-        <f>'BAU Calculations USA'!C42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!C42*'Texas Notes'!$G$18</f>
         <v>270461574158446.5</v>
       </c>
       <c r="D42" s="14">
-        <f>'BAU Calculations USA'!D42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!D42*'Texas Notes'!$G$18</f>
         <v>256664819790330.44</v>
       </c>
       <c r="E42" s="14">
-        <f>'BAU Calculations USA'!E42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!E42*'Texas Notes'!$G$18</f>
         <v>269303363294554.78</v>
       </c>
       <c r="F42" s="14">
-        <f>'BAU Calculations USA'!F42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!F42*'Texas Notes'!$G$18</f>
         <v>277038339186977.5</v>
       </c>
       <c r="G42" s="14">
-        <f>'BAU Calculations USA'!G42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!G42*'Texas Notes'!$G$18</f>
         <v>281445239925686.75</v>
       </c>
       <c r="H42" s="14">
-        <f>'BAU Calculations USA'!H42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!H42*'Texas Notes'!$G$18</f>
         <v>284799776839032.19</v>
       </c>
       <c r="I42" s="14">
-        <f>'BAU Calculations USA'!I42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!I42*'Texas Notes'!$G$18</f>
         <v>287384887203078.69</v>
       </c>
       <c r="J42" s="14">
-        <f>'BAU Calculations USA'!J42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!J42*'Texas Notes'!$G$18</f>
         <v>290104341885256.81</v>
       </c>
       <c r="K42" s="14">
-        <f>'BAU Calculations USA'!K42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!K42*'Texas Notes'!$G$18</f>
         <v>292107293537399.94</v>
       </c>
       <c r="L42" s="14">
-        <f>'BAU Calculations USA'!L42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!L42*'Texas Notes'!$G$18</f>
         <v>294961092537709.56</v>
       </c>
       <c r="M42" s="14">
-        <f>'BAU Calculations USA'!M42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!M42*'Texas Notes'!$G$18</f>
         <v>296675000353872.69</v>
       </c>
       <c r="N42" s="14">
-        <f>'BAU Calculations USA'!N42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!N42*'Texas Notes'!$G$18</f>
         <v>298714591365506.25</v>
       </c>
       <c r="O42" s="14">
-        <f>'BAU Calculations USA'!O42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!O42*'Texas Notes'!$G$18</f>
         <v>300454960941301.38</v>
       </c>
       <c r="P42" s="14">
-        <f>'BAU Calculations USA'!P42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!P42*'Texas Notes'!$G$18</f>
         <v>302018240279559.44</v>
       </c>
       <c r="Q42" s="14">
-        <f>'BAU Calculations USA'!Q42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!Q42*'Texas Notes'!$G$18</f>
         <v>303211054982969.88</v>
       </c>
       <c r="R42" s="14">
-        <f>'BAU Calculations USA'!R42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!R42*'Texas Notes'!$G$18</f>
         <v>304914785199274.56</v>
       </c>
       <c r="S42" s="14">
-        <f>'BAU Calculations USA'!S42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!S42*'Texas Notes'!$G$18</f>
         <v>306828173972663.31</v>
       </c>
       <c r="T42" s="14">
-        <f>'BAU Calculations USA'!T42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!T42*'Texas Notes'!$G$18</f>
         <v>308912546423674.06</v>
       </c>
       <c r="U42" s="14">
-        <f>'BAU Calculations USA'!U42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!U42*'Texas Notes'!$G$18</f>
         <v>311027451674260.19</v>
       </c>
       <c r="V42" s="14">
-        <f>'BAU Calculations USA'!V42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!V42*'Texas Notes'!$G$18</f>
         <v>313586100278674.75</v>
       </c>
       <c r="W42" s="14">
-        <f>'BAU Calculations USA'!W42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!W42*'Texas Notes'!$G$18</f>
         <v>315456743132658.06</v>
       </c>
       <c r="X42" s="14">
-        <f>'BAU Calculations USA'!X42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!X42*'Texas Notes'!$G$18</f>
         <v>317640856062281.63</v>
       </c>
       <c r="Y42" s="14">
-        <f>'BAU Calculations USA'!Y42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!Y42*'Texas Notes'!$G$18</f>
         <v>319680447073915.19</v>
       </c>
       <c r="Z42" s="14">
-        <f>'BAU Calculations USA'!Z42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!Z42*'Texas Notes'!$G$18</f>
         <v>321575516167558.75</v>
       </c>
       <c r="AA42" s="14">
-        <f>'BAU Calculations USA'!AA42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!AA42*'Texas Notes'!$G$18</f>
         <v>323509260140664.38</v>
       </c>
       <c r="AB42" s="14">
-        <f>'BAU Calculations USA'!AB42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!AB42*'Texas Notes'!$G$18</f>
         <v>325603810191533.63</v>
       </c>
       <c r="AC42" s="14">
-        <f>'BAU Calculations USA'!AC42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!AC42*'Texas Notes'!$G$18</f>
         <v>328313087273853.25</v>
       </c>
       <c r="AD42" s="14">
-        <f>'BAU Calculations USA'!AD42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!AD42*'Texas Notes'!$G$18</f>
         <v>330155232848232.88</v>
       </c>
       <c r="AE42" s="14">
-        <f>'BAU Calculations USA'!AE42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!AE42*'Texas Notes'!$G$18</f>
         <v>332194823859866.44</v>
       </c>
       <c r="AF42" s="14">
-        <f>'BAU Calculations USA'!AF42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!AF42*'Texas Notes'!$G$18</f>
         <v>334486819347989.56</v>
       </c>
       <c r="AG42" s="14">
-        <f>'BAU Calculations USA'!AG42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!AG42*'Texas Notes'!$G$18</f>
         <v>336373746361746.38</v>
       </c>
       <c r="AH42" s="14">
-        <f>'BAU Calculations USA'!AH42*'Texas Notes'!$G$24</f>
+        <f>'BAU Calculations USA'!AH42*'Texas Notes'!$G$18</f>
         <v>338513077851992.75</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>123</v>
       </c>
@@ -11305,7 +11243,7 @@
       <c r="AG43" s="14"/>
       <c r="AH43" s="14"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -11343,12 +11281,12 @@
       <c r="AG44" s="14"/>
       <c r="AH44" s="14"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>128</v>
       </c>
@@ -11386,7 +11324,7 @@
       <c r="AG47" s="7"/>
       <c r="AH47" s="7"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>2018</v>
       </c>
@@ -11487,7 +11425,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>116</v>
       </c>
@@ -11625,7 +11563,7 @@
       </c>
       <c r="AI49" s="10"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -11762,34 +11700,34 @@
         <v>6.6845101879237284E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="16" t="s">
         <v>142</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="19"/>
       <c r="B74" s="19">
         <v>2018</v>
@@ -11798,7 +11736,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="19" t="s">
         <v>116</v>
       </c>
@@ -11811,7 +11749,7 @@
         <v>2.6267706317510218E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="19" t="s">
         <v>143</v>
       </c>
@@ -11838,13 +11776,13 @@
       <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.86328125" customWidth="1"/>
+    <col min="1" max="1" width="52.81640625" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>127</v>
       </c>
@@ -11882,7 +11820,7 @@
       <c r="AG1" s="7"/>
       <c r="AH1" s="7"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2018</v>
       </c>
@@ -11983,7 +11921,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -12121,7 +12059,7 @@
       </c>
       <c r="AI3" s="10"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -12258,7 +12196,7 @@
         <v>32203095.238095239</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -12293,7 +12231,7 @@
       <c r="AG5" s="14"/>
       <c r="AH5" s="14"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -12331,7 +12269,7 @@
       <c r="AG6" s="14"/>
       <c r="AH6" s="14"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -12369,7 +12307,7 @@
       <c r="AG7" s="14"/>
       <c r="AH7" s="14"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -12404,7 +12342,7 @@
       <c r="AG8" s="14"/>
       <c r="AH8" s="14"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>133</v>
       </c>
@@ -12442,7 +12380,7 @@
       <c r="AG9" s="14"/>
       <c r="AH9" s="14"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -12480,7 +12418,7 @@
       <c r="AG10" s="14"/>
       <c r="AH10" s="14"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -12518,7 +12456,7 @@
       <c r="AG11" s="14"/>
       <c r="AH11" s="14"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -12556,7 +12494,7 @@
       <c r="AG12" s="14"/>
       <c r="AH12" s="14"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -12591,7 +12529,7 @@
       <c r="AG13" s="14"/>
       <c r="AH13" s="14"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>137</v>
       </c>
@@ -12629,7 +12567,7 @@
       <c r="AG14" s="14"/>
       <c r="AH14" s="14"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>2018</v>
       </c>
@@ -12730,7 +12668,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -12867,7 +12805,7 @@
         <v>18591111.111110926</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -13004,7 +12942,7 @@
         <v>57197539.68253994</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -13039,7 +12977,7 @@
       <c r="AG18" s="14"/>
       <c r="AH18" s="14"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -13074,7 +13012,7 @@
       <c r="AG19" s="14"/>
       <c r="AH19" s="14"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -13109,7 +13047,7 @@
       <c r="AG20" s="14"/>
       <c r="AH20" s="14"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -13144,7 +13082,7 @@
       <c r="AG21" s="14"/>
       <c r="AH21" s="14"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -13179,7 +13117,7 @@
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -13214,7 +13152,7 @@
       <c r="AG23" s="14"/>
       <c r="AH23" s="14"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -13249,7 +13187,7 @@
       <c r="AG24" s="14"/>
       <c r="AH24" s="14"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -13284,7 +13222,7 @@
       <c r="AG25" s="14"/>
       <c r="AH25" s="14"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -13319,7 +13257,7 @@
       <c r="AG26" s="14"/>
       <c r="AH26" s="14"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -13354,7 +13292,7 @@
       <c r="AG27" s="14"/>
       <c r="AH27" s="14"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -13389,7 +13327,7 @@
       <c r="AG28" s="14"/>
       <c r="AH28" s="14"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -13424,7 +13362,7 @@
       <c r="AG29" s="14"/>
       <c r="AH29" s="14"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -13459,7 +13397,7 @@
       <c r="AG30" s="14"/>
       <c r="AH30" s="14"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -13494,7 +13432,7 @@
       <c r="AG31" s="14"/>
       <c r="AH31" s="14"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -13529,7 +13467,7 @@
       <c r="AG32" s="14"/>
       <c r="AH32" s="14"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -13564,7 +13502,7 @@
       <c r="AG33" s="14"/>
       <c r="AH33" s="14"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -13599,7 +13537,7 @@
       <c r="AG34" s="14"/>
       <c r="AH34" s="14"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
         <v>126</v>
       </c>
@@ -13637,7 +13575,7 @@
       <c r="AG36" s="7"/>
       <c r="AH36" s="7"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>117</v>
       </c>
@@ -13741,7 +13679,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -13845,7 +13783,7 @@
         <v>1190540000000000</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>119</v>
       </c>
@@ -13949,7 +13887,7 @@
         <v>1675400000000000</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -14053,7 +13991,7 @@
         <v>282321000000000</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -14157,7 +14095,7 @@
         <v>275286000000000</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>122</v>
       </c>
@@ -14261,7 +14199,7 @@
         <v>1663030000000000</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>123</v>
       </c>
@@ -14365,7 +14303,7 @@
         <v>14832600000000</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -14469,7 +14407,7 @@
         <v>-896000000000000</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -14573,7 +14511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>128</v>
       </c>
@@ -14611,7 +14549,7 @@
       <c r="AG47" s="7"/>
       <c r="AH47" s="7"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>2018</v>
       </c>
@@ -14712,7 +14650,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>116</v>
       </c>
@@ -14850,7 +14788,7 @@
       </c>
       <c r="AI49" s="10"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -14987,34 +14925,34 @@
         <v>3.4393570580530677E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="16" t="s">
         <v>142</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="19"/>
       <c r="B74" s="19">
         <v>2018</v>
@@ -15023,7 +14961,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="19" t="s">
         <v>116</v>
       </c>
@@ -15034,7 +14972,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="19" t="s">
         <v>143</v>
       </c>
@@ -15058,16 +14996,16 @@
   </sheetPr>
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.86328125" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -15171,7 +15109,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -15275,7 +15213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -15412,7 +15350,7 @@
         <v>2.6267706317510298E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -15516,7 +15454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -15620,7 +15558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -15757,7 +15695,7 @@
         <v>6.6845101879237312E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -15861,7 +15799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -15965,7 +15903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
